--- a/MZ-AMS-LITE(中文)/AMS-LITE分体多色打印系统打板文件——木子小小阳/电子配件表BOM.xlsx
+++ b/MZ-AMS-LITE(中文)/AMS-LITE分体多色打印系统打板文件——木子小小阳/电子配件表BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     </r>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?_u=42m84rkn91f8&amp;id=687438393568&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z&amp;skuId=5056380485926</t>
+    <t>https://item.taobao.com/item.htm?_u=i2m84rkn62b6&amp;id=598419368634&amp;spm=a1z09.2.0.0.60832e8dcmeExk&amp;skuId=4342685114246</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -878,7 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1204,7 +1203,7 @@
   <dimension ref="B1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD8"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1510,7 +1509,7 @@
       <c r="C33" s="12">
         <v>4</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1543,20 +1542,19 @@
       <c r="C36">
         <v>8</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="14"/>
+      <c r="B37" s="13"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="14"/>
-      <c r="C39"/>
+      <c r="B39" s="13"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="4:4">
@@ -1582,7 +1580,7 @@
     <hyperlink ref="D33" r:id="rId7" display="https://item.taobao.com/item.htm?_u=42m84rkn0244&amp;id=570975156579&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z"/>
     <hyperlink ref="D34" r:id="rId8" display="https://item.taobao.com/item.htm?_u=42m84rknd2c9&amp;id=599559485115&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z&amp;skuId=4357667427077"/>
     <hyperlink ref="D35" r:id="rId9" display="https://item.taobao.com/item.htm?_u=42m84rknac57&amp;id=45015153452&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z" tooltip="https://item.taobao.com/item.htm?_u=42m84rknac57&amp;id=45015153452&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z"/>
-    <hyperlink ref="D36" r:id="rId10" display="https://item.taobao.com/item.htm?_u=42m84rkn91f8&amp;id=687438393568&amp;spm=a1z09.2.0.0.3c9c2e8dr52K2Z&amp;skuId=5056380485926"/>
+    <hyperlink ref="D36" r:id="rId10" display="https://item.taobao.com/item.htm?_u=i2m84rkn62b6&amp;id=598419368634&amp;spm=a1z09.2.0.0.60832e8dcmeExk&amp;skuId=4342685114246" tooltip="https://item.taobao.com/item.htm?_u=i2m84rkn62b6&amp;id=598419368634&amp;spm=a1z09.2.0.0.60832e8dcmeExk&amp;skuId=4342685114246"/>
     <hyperlink ref="D17" r:id="rId11" display="https://item.taobao.com/item.htm?_u=42m84rknca35&amp;id=696317941742&amp;spm=a1z09.2.0.0.db2e2e8dZ6oTsz"/>
     <hyperlink ref="D19" r:id="rId12" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.db2e2e8dZ6oTsz&amp;id=644104422082&amp;_u=42m84rkn4c64"/>
     <hyperlink ref="D20" r:id="rId13" display="https://item.taobao.com/item.htm?_u=42m84rkn69a5&amp;id=542302701400&amp;spm=a1z09.2.0.0.db2e2e8dZ6oTsz"/>
